--- a/data/processed/documents/APP-000014/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000014/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tariq Al Memari</t>
+          <t>Noura Al Mazroui</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6500</v>
+        <v>1627.28</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>139352</v>
+        <v>725773</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>35581</v>
+        <v>500446</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>103771</v>
+        <v>225327</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>3.92</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,36 +608,51 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Mid-range Car</t>
+          <t>Premium Car</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>129854</v>
+        <v>254129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
+          <t>Vehicles</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Luxury Car</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>468951</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
           <t>Liquid Assets</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Savings Account</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="C4" s="8" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>139352</v>
+      <c r="C5" s="10" t="n">
+        <v>725773</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,32 +711,95 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
+          <t>Auto Loans</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle Loan 1</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>152477</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>2118</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Auto Loans</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle Loan 2</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>281371</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>3350</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Personal Loans</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Personal Loan</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>58558</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
           <t>Credit Cards</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Credit Card Balance</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>35581</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>1779</v>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="C5" s="8" t="n">
+        <v>8040</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>402</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="C3" s="12" t="n">
-        <v>35581</v>
+      <c r="C6" s="12" t="n">
+        <v>500446</v>
       </c>
     </row>
   </sheetData>
